--- a/trunk/PhD MRS Optimization EA/coefs.xlsx
+++ b/trunk/PhD MRS Optimization EA/coefs.xlsx
@@ -16,30 +16,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Clin</t>
+    <t>Exp</t>
   </si>
   <si>
-    <t>Cexp</t>
+    <t>b0</t>
   </si>
   <si>
-    <t>Assy</t>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>Hiper</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Pow K</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>k/(b0 + b1X)</t>
+  </si>
+  <si>
+    <t>X/(b0 + b1X)</t>
+  </si>
+  <si>
+    <t>b0*exp(b1/X)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -63,8 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,59 +153,301 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$20</c:f>
+              <c:f>Sheet1!$B$8:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>11.349858807576004</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.822118800390509</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.459603111156952</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.320116922736545</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.481689070338064</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.049647464412942</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.166169912567653</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.023176380641601</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104.87973172487283</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120.08553692318768</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>137.11263892065787</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156.59823444367797</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>179.40244910553017</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>206.68633104092515</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>240.01713130052181</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$8:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$8:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -171,11 +464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151449984"/>
-        <c:axId val="151451520"/>
+        <c:axId val="59568128"/>
+        <c:axId val="59724544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151449984"/>
+        <c:axId val="59568128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -184,7 +477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151451520"/>
+        <c:crossAx val="59724544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -192,18 +485,993 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151451520"/>
+        <c:axId val="59724544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59568128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pow K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$6:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>30.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>226.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>259.85000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>297.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>338.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hiper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$6:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>143.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173.07692307692307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>181.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$6:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$6:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.314718055994533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.86122886681096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158.62943611198907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180.94379124341003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199.17594692280551</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>214.59101490553132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227.94415416798358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>239.72245773362195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250.25850929940458</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259.7895272798371</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>268.49066497880005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>276.49493574615366</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>283.90573296152581</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>290.80502011022099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$6:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$6:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.471999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.766399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.719679999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.66361599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.996339199999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.19560703999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.83472844799998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.60167413759999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178.32200896511995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>213.98641075814396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256.78369290977275</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308.14043149172727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k/(b0 + b1X)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$6:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$6:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.153846153846153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X/(b0 + b1X)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$6:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$6:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>71.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.1111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.36363636363637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.84615384615384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.47058823529412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184.21052631578948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190.47619047619045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>195.65217391304344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>203.7037037037037</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206.89655172413791</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>209.67741935483869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>212.12121212121212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>214.28571428571431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b0*exp(b1/X)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$6:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$6:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2968.2631820515321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>243.64987921406947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.8898010094006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.806859149236828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.3656365691809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.019517817856503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40.854541405322841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.364919148644447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.858179972669156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.974425414002567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.509142067806366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.337935927764267</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29.380983876980334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.584800648359554</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.912248501721791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="156776320"/>
+        <c:axId val="156777856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156776320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151449984"/>
+        <c:crossAx val="156777856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156777856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156776320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -229,20 +1497,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -547,171 +1850,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <f>$D$2*A6 + EXP($E$2*A6)</f>
-        <v>11.349858807576004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ref="B7:B20" si="0">$D$2*A7 + EXP($E$2*A7)</f>
-        <v>21.822118800390509</v>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>32.459603111156952</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <f>$B$2</f>
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <f>$C$2*A8</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <f>$D$2*A8^$E$2</f>
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM(B8:D8)</f>
+        <v>12.1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:B22" si="0">$B$2</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:C22" si="1">$C$2*A9</f>
         <v>4</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>43.320116922736545</v>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D22" si="2">$D$2*A9^$E$2</f>
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ref="E9:E22" si="3">SUM(B9:D9)</f>
+        <v>14.4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>54.481689070338064</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>66.049647464412942</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>78.166169912567653</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>91.023176380641601</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>25.6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
-        <v>104.87973172487283</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>28.9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>120.08553692318768</v>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>32.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>137.11263892065787</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>156.59823444367797</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>14.4</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>179.40244910553017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
+        <v>52.900000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>206.68633104092515</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>15</v>
       </c>
-      <c r="B20">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>240.01713130052181</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
@@ -722,13 +2230,618 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>1.2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B$4+B$3*$A6+B$2*$A6^B$1</f>
+        <v>30.05</v>
+      </c>
+      <c r="C6" s="3">
+        <f>C$4+C$3*$A6+C$2/$A6</f>
+        <v>330</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D$4+D$3*LN($A6)</f>
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <f>E$4*E$3^$A6</f>
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <f>F$1/(F$4+F$3*$A6)</f>
+        <v>300</v>
+      </c>
+      <c r="G6" s="3">
+        <f>$A6/(G$4+G$3*$A6)</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="H6" s="3">
+        <f>H$4*EXP(H$3/$A6)</f>
+        <v>2968.2631820515321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B$4+B$3*$A7+B$2*$A7^B$1</f>
+        <v>40.4</v>
+      </c>
+      <c r="C7" s="3">
+        <f>C$4+C$3*$A7+C$2/$A7</f>
+        <v>190</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:D20" si="0">D$4+D$3*LN($A7)</f>
+        <v>89.314718055994533</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" ref="E7:E20" si="1">E$4*E$3^$A7</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:F20" si="2">F$1/(F$4+F$3*$A7)</f>
+        <v>200</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7:G20" si="3">$A7/(G$4+G$3*$A7)</f>
+        <v>111.1111111111111</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:H20" si="4">H$4*EXP(H$3/$A7)</f>
+        <v>243.64987921406947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <f>B$4+B$3*$A8+B$2*$A8^B$1</f>
+        <v>51.35</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C$4+C$3*$A8+C$2/$A8</f>
+        <v>150</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>129.86122886681096</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>34.56</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="3"/>
+        <v>136.36363636363637</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="4"/>
+        <v>105.8898010094006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <f>B$4+B$3*$A9+B$2*$A9^B$1</f>
+        <v>63.2</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C$4+C$3*$A9+C$2/$A9</f>
+        <v>135</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>158.62943611198907</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>41.471999999999994</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="3"/>
+        <v>153.84615384615384</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="4"/>
+        <v>69.806859149236828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B$4+B$3*$A10+B$2*$A10^B$1</f>
+        <v>76.25</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C$4+C$3*$A10+C$2/$A10</f>
+        <v>130</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>180.94379124341003</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>49.766399999999997</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>54.3656365691809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B$4+B$3*$A11+B$2*$A11^B$1</f>
+        <v>90.8</v>
+      </c>
+      <c r="C11" s="3">
+        <f>C$4+C$3*$A11+C$2/$A11</f>
+        <v>130</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>199.17594692280551</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>59.719679999999997</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="3"/>
+        <v>176.47058823529412</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="4"/>
+        <v>46.019517817856503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B$4+B$3*$A12+B$2*$A12^B$1</f>
+        <v>107.15</v>
+      </c>
+      <c r="C12" s="3">
+        <f>C$4+C$3*$A12+C$2/$A12</f>
+        <v>132.85714285714286</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>214.59101490553132</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>71.66361599999999</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>184.21052631578948</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="4"/>
+        <v>40.854541405322841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B$4+B$3*$A13+B$2*$A13^B$1</f>
+        <v>125.6</v>
+      </c>
+      <c r="C13" s="3">
+        <f>C$4+C$3*$A13+C$2/$A13</f>
+        <v>137.5</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>227.94415416798358</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>85.996339199999994</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>190.47619047619045</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="4"/>
+        <v>37.364919148644447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B$4+B$3*$A14+B$2*$A14^B$1</f>
+        <v>146.44999999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <f>C$4+C$3*$A14+C$2/$A14</f>
+        <v>143.33333333333334</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>239.72245773362195</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>103.19560703999998</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>195.65217391304344</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="4"/>
+        <v>34.858179972669156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <f>B$4+B$3*$A15+B$2*$A15^B$1</f>
+        <v>170</v>
+      </c>
+      <c r="C15" s="3">
+        <f>C$4+C$3*$A15+C$2/$A15</f>
+        <v>150</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>250.25850929940458</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>123.83472844799998</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="4"/>
+        <v>32.974425414002567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B$4+B$3*$A16+B$2*$A16^B$1</f>
+        <v>196.55</v>
+      </c>
+      <c r="C16" s="3">
+        <f>C$4+C$3*$A16+C$2/$A16</f>
+        <v>157.27272727272728</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>259.7895272798371</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>148.60167413759999</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>203.7037037037037</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="4"/>
+        <v>31.509142067806366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B$4+B$3*$A17+B$2*$A17^B$1</f>
+        <v>226.4</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C$4+C$3*$A17+C$2/$A17</f>
+        <v>165</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>268.49066497880005</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>178.32200896511995</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>206.89655172413791</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>30.337935927764267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B$4+B$3*$A18+B$2*$A18^B$1</f>
+        <v>259.85000000000002</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C$4+C$3*$A18+C$2/$A18</f>
+        <v>173.07692307692307</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>276.49493574615366</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>213.98641075814396</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>209.67741935483869</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="4"/>
+        <v>29.380983876980334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B$4+B$3*$A19+B$2*$A19^B$1</f>
+        <v>297.20000000000005</v>
+      </c>
+      <c r="C19" s="3">
+        <f>C$4+C$3*$A19+C$2/$A19</f>
+        <v>181.42857142857142</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>283.90573296152581</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>256.78369290977275</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>212.12121212121212</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="4"/>
+        <v>28.584800648359554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B$4+B$3*$A20+B$2*$A20^B$1</f>
+        <v>338.75</v>
+      </c>
+      <c r="C20" s="3">
+        <f>C$4+C$3*$A20+C$2/$A20</f>
+        <v>190</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>290.80502011022099</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>308.14043149172727</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>214.28571428571431</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="4"/>
+        <v>27.912248501721791</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/trunk/PhD MRS Optimization EA/coefs.xlsx
+++ b/trunk/PhD MRS Optimization EA/coefs.xlsx
@@ -253,49 +253,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -329,49 +329,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6</c:v>
+                  <c:v>4.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>6.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4</c:v>
+                  <c:v>10.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.1</c:v>
+                  <c:v>14.58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.100000000000001</c:v>
+                  <c:v>26.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.4</c:v>
+                  <c:v>34.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.900000000000002</c:v>
+                  <c:v>43.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>54.88</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.5</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,49 +405,49 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>12.1</c:v>
+                  <c:v>15.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.4</c:v>
+                  <c:v>20.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.899999999999999</c:v>
+                  <c:v>25.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>31.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.5</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.6</c:v>
+                  <c:v>44.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.9</c:v>
+                  <c:v>51.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.4</c:v>
+                  <c:v>60.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.1</c:v>
+                  <c:v>69.58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.1</c:v>
+                  <c:v>91.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.4</c:v>
+                  <c:v>104.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.900000000000006</c:v>
+                  <c:v>118.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>57.6</c:v>
+                  <c:v>134.88</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.5</c:v>
+                  <c:v>152.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,13 +1881,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,15 +1917,15 @@
       </c>
       <c r="C8" s="2">
         <f>$C$2*A8</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
         <f>$D$2*A8^$E$2</f>
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(B8:D8)</f>
-        <v>12.1</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1938,15 +1938,15 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:C22" si="1">$C$2*A9</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" ref="D9:D22" si="2">$D$2*A9^$E$2</f>
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" si="3">SUM(B9:D9)</f>
-        <v>14.4</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,15 +1959,15 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.54</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="3"/>
-        <v>16.899999999999999</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,15 +1980,15 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="3"/>
-        <v>19.600000000000001</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="3"/>
-        <v>22.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,15 +2022,15 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>4.32</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>25.6</v>
+        <v>44.32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2043,15 +2043,15 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>4.9000000000000004</v>
+        <v>6.86</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="3"/>
-        <v>28.9</v>
+        <v>51.86</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,15 +2064,15 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>10.24</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>32.4</v>
+        <v>60.24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,15 +2085,15 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="2"/>
-        <v>8.1</v>
+        <v>14.58</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="3"/>
-        <v>36.1</v>
+        <v>69.58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,15 +2106,15 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2127,15 +2127,15 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="2"/>
-        <v>12.100000000000001</v>
+        <v>26.62</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="3"/>
-        <v>44.1</v>
+        <v>91.62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,15 +2148,15 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="2"/>
-        <v>14.4</v>
+        <v>34.56</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="3"/>
-        <v>48.4</v>
+        <v>104.56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2169,15 +2169,15 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="2"/>
-        <v>16.900000000000002</v>
+        <v>43.94</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="3"/>
-        <v>52.900000000000006</v>
+        <v>118.94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,15 +2190,15 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="2"/>
-        <v>19.600000000000001</v>
+        <v>54.88</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="3"/>
-        <v>57.6</v>
+        <v>134.88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2211,15 +2211,15 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="2"/>
-        <v>22.5</v>
+        <v>67.5</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>152.5</v>
       </c>
     </row>
   </sheetData>
